--- a/wordstat_top_queries.xlsx
+++ b/wordstat_top_queries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ychebochkz 3.0\seo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910F7156-C55C-41D7-8BF6-358A216EE602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35800A71-4308-4BC1-94AE-EA4DFB54B142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -909,7 +909,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -989,29 +989,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1031,34 +1032,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1401,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L570"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125:J125"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1529,7 +1531,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1581,7 +1583,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1711,7 +1713,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1737,7 +1739,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1757,7 +1759,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1783,7 +1785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1803,7 +1805,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1823,7 +1825,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1843,7 +1845,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1863,7 +1865,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1883,7 +1885,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -1897,7 +1899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -1911,7 +1913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -1925,7 +1927,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -2597,18 +2599,18 @@
       <c r="L102" s="22"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="35" t="s">
+      <c r="A103" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="B103" s="35"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="40"/>
-      <c r="E103" s="39"/>
-      <c r="F103" s="39"/>
-      <c r="G103" s="39"/>
-      <c r="H103" s="39"/>
-      <c r="I103" s="39"/>
-      <c r="J103" s="39"/>
+      <c r="B103" s="59"/>
+      <c r="C103" s="59"/>
+      <c r="D103" s="60"/>
+      <c r="E103" s="61"/>
+      <c r="F103" s="61"/>
+      <c r="G103" s="61"/>
+      <c r="H103" s="61"/>
+      <c r="I103" s="61"/>
+      <c r="J103" s="61"/>
     </row>
     <row r="104" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="24" t="s">
@@ -2620,15 +2622,15 @@
       <c r="C104" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="D104" s="41" t="s">
+      <c r="D104" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="E104" s="39"/>
-      <c r="F104" s="39"/>
-      <c r="G104" s="39"/>
-      <c r="H104" s="39"/>
-      <c r="I104" s="39"/>
-      <c r="J104" s="39"/>
+      <c r="E104" s="61"/>
+      <c r="F104" s="61"/>
+      <c r="G104" s="61"/>
+      <c r="H104" s="61"/>
+      <c r="I104" s="61"/>
+      <c r="J104" s="61"/>
     </row>
     <row r="105" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A105" s="29" t="s">
@@ -2640,15 +2642,15 @@
       <c r="C105" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="D105" s="42" t="s">
+      <c r="D105" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="E105" s="39"/>
-      <c r="F105" s="39"/>
-      <c r="G105" s="39"/>
-      <c r="H105" s="39"/>
-      <c r="I105" s="39"/>
-      <c r="J105" s="39"/>
+      <c r="E105" s="61"/>
+      <c r="F105" s="61"/>
+      <c r="G105" s="61"/>
+      <c r="H105" s="61"/>
+      <c r="I105" s="61"/>
+      <c r="J105" s="61"/>
     </row>
     <row r="106" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A106" s="29" t="s">
@@ -2660,17 +2662,17 @@
       <c r="C106" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="D106" s="42" t="s">
+      <c r="D106" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="E106" s="39"/>
-      <c r="F106" s="39"/>
-      <c r="G106" s="39"/>
-      <c r="H106" s="39"/>
-      <c r="I106" s="39"/>
-      <c r="J106" s="39"/>
-    </row>
-    <row r="107" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E106" s="61"/>
+      <c r="F106" s="61"/>
+      <c r="G106" s="61"/>
+      <c r="H106" s="61"/>
+      <c r="I106" s="61"/>
+      <c r="J106" s="61"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="29" t="s">
         <v>123</v>
       </c>
@@ -2680,15 +2682,15 @@
       <c r="C107" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="D107" s="42" t="s">
+      <c r="D107" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="E107" s="39"/>
-      <c r="F107" s="39"/>
-      <c r="G107" s="39"/>
-      <c r="H107" s="39"/>
-      <c r="I107" s="39"/>
-      <c r="J107" s="39"/>
+      <c r="E107" s="61"/>
+      <c r="F107" s="61"/>
+      <c r="G107" s="61"/>
+      <c r="H107" s="61"/>
+      <c r="I107" s="61"/>
+      <c r="J107" s="61"/>
     </row>
     <row r="108" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="29" t="s">
@@ -2700,15 +2702,15 @@
       <c r="C108" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="D108" s="42" t="s">
+      <c r="D108" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="E108" s="39"/>
-      <c r="F108" s="39"/>
-      <c r="G108" s="39"/>
-      <c r="H108" s="39"/>
-      <c r="I108" s="39"/>
-      <c r="J108" s="39"/>
+      <c r="E108" s="61"/>
+      <c r="F108" s="61"/>
+      <c r="G108" s="61"/>
+      <c r="H108" s="61"/>
+      <c r="I108" s="61"/>
+      <c r="J108" s="61"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="29" t="s">
@@ -2720,33 +2722,33 @@
       <c r="C109" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="D109" s="42" t="s">
+      <c r="D109" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="E109" s="39"/>
-      <c r="F109" s="39"/>
-      <c r="G109" s="39"/>
-      <c r="H109" s="39"/>
-      <c r="I109" s="39"/>
-      <c r="J109" s="39"/>
+      <c r="E109" s="61"/>
+      <c r="F109" s="61"/>
+      <c r="G109" s="61"/>
+      <c r="H109" s="61"/>
+      <c r="I109" s="61"/>
+      <c r="J109" s="61"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="36"/>
-      <c r="B110" s="36"/>
-      <c r="C110" s="36"/>
-      <c r="D110" s="36"/>
-      <c r="E110" s="39"/>
-      <c r="F110" s="39"/>
-      <c r="G110" s="39"/>
-      <c r="H110" s="39"/>
-      <c r="I110" s="39"/>
-      <c r="J110" s="39"/>
+      <c r="A110" s="62"/>
+      <c r="B110" s="62"/>
+      <c r="C110" s="62"/>
+      <c r="D110" s="62"/>
+      <c r="E110" s="61"/>
+      <c r="F110" s="61"/>
+      <c r="G110" s="61"/>
+      <c r="H110" s="61"/>
+      <c r="I110" s="61"/>
+      <c r="J110" s="61"/>
     </row>
     <row r="111" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="37"/>
-      <c r="B111" s="37"/>
-      <c r="C111" s="37"/>
-      <c r="D111" s="37"/>
+      <c r="A111" s="63"/>
+      <c r="B111" s="63"/>
+      <c r="C111" s="63"/>
+      <c r="D111" s="63"/>
       <c r="E111" s="26" t="s">
         <v>134</v>
       </c>
@@ -2756,17 +2758,17 @@
       <c r="G111" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="H111" s="43" t="s">
+      <c r="H111" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="I111" s="44"/>
-      <c r="J111" s="45"/>
+      <c r="I111" s="51"/>
+      <c r="J111" s="52"/>
     </row>
     <row r="112" spans="1:12" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="37"/>
-      <c r="B112" s="37"/>
-      <c r="C112" s="37"/>
-      <c r="D112" s="37"/>
+      <c r="A112" s="63"/>
+      <c r="B112" s="63"/>
+      <c r="C112" s="63"/>
+      <c r="D112" s="63"/>
       <c r="E112" s="29" t="s">
         <v>116</v>
       </c>
@@ -2776,17 +2778,17 @@
       <c r="G112" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="H112" s="46" t="s">
+      <c r="H112" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="I112" s="47"/>
-      <c r="J112" s="48"/>
+      <c r="I112" s="54"/>
+      <c r="J112" s="55"/>
     </row>
     <row r="113" spans="1:10" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="37"/>
-      <c r="B113" s="37"/>
-      <c r="C113" s="37"/>
-      <c r="D113" s="37"/>
+      <c r="A113" s="63"/>
+      <c r="B113" s="63"/>
+      <c r="C113" s="63"/>
+      <c r="D113" s="63"/>
       <c r="E113" s="29" t="s">
         <v>140</v>
       </c>
@@ -2796,17 +2798,17 @@
       <c r="G113" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="H113" s="46" t="s">
+      <c r="H113" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="I113" s="47"/>
-      <c r="J113" s="48"/>
+      <c r="I113" s="54"/>
+      <c r="J113" s="55"/>
     </row>
     <row r="114" spans="1:10" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="37"/>
-      <c r="B114" s="37"/>
-      <c r="C114" s="37"/>
-      <c r="D114" s="37"/>
+      <c r="A114" s="63"/>
+      <c r="B114" s="63"/>
+      <c r="C114" s="63"/>
+      <c r="D114" s="63"/>
       <c r="E114" s="29" t="s">
         <v>123</v>
       </c>
@@ -2816,17 +2818,17 @@
       <c r="G114" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="H114" s="46" t="s">
+      <c r="H114" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="I114" s="47"/>
-      <c r="J114" s="48"/>
+      <c r="I114" s="54"/>
+      <c r="J114" s="55"/>
     </row>
     <row r="115" spans="1:10" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="37"/>
-      <c r="B115" s="37"/>
-      <c r="C115" s="37"/>
-      <c r="D115" s="37"/>
+      <c r="A115" s="63"/>
+      <c r="B115" s="63"/>
+      <c r="C115" s="63"/>
+      <c r="D115" s="63"/>
       <c r="E115" s="29" t="s">
         <v>126</v>
       </c>
@@ -2836,17 +2838,17 @@
       <c r="G115" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="H115" s="46" t="s">
+      <c r="H115" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="I115" s="47"/>
-      <c r="J115" s="48"/>
+      <c r="I115" s="54"/>
+      <c r="J115" s="55"/>
     </row>
     <row r="116" spans="1:10" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="37"/>
-      <c r="B116" s="37"/>
-      <c r="C116" s="37"/>
-      <c r="D116" s="37"/>
+      <c r="A116" s="63"/>
+      <c r="B116" s="63"/>
+      <c r="C116" s="63"/>
+      <c r="D116" s="63"/>
       <c r="E116" s="29" t="s">
         <v>130</v>
       </c>
@@ -2856,39 +2858,39 @@
       <c r="G116" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="H116" s="46" t="s">
+      <c r="H116" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="I116" s="47"/>
-      <c r="J116" s="48"/>
+      <c r="I116" s="54"/>
+      <c r="J116" s="55"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="37"/>
-      <c r="B117" s="37"/>
-      <c r="C117" s="37"/>
-      <c r="D117" s="37"/>
-      <c r="E117" s="39"/>
-      <c r="F117" s="39"/>
-      <c r="G117" s="39"/>
-      <c r="H117" s="39"/>
-      <c r="I117" s="39"/>
-      <c r="J117" s="39"/>
+      <c r="A117" s="63"/>
+      <c r="B117" s="63"/>
+      <c r="C117" s="63"/>
+      <c r="D117" s="63"/>
+      <c r="E117" s="61"/>
+      <c r="F117" s="61"/>
+      <c r="G117" s="61"/>
+      <c r="H117" s="61"/>
+      <c r="I117" s="61"/>
+      <c r="J117" s="61"/>
     </row>
     <row r="118" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="35" t="s">
+      <c r="A118" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="B118" s="35"/>
-      <c r="C118" s="35"/>
-      <c r="D118" s="35"/>
-      <c r="E118" s="38"/>
-      <c r="F118" s="38"/>
-      <c r="G118" s="38"/>
-      <c r="H118" s="38"/>
-      <c r="I118" s="38"/>
-      <c r="J118" s="38"/>
-    </row>
-    <row r="119" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="B118" s="59"/>
+      <c r="C118" s="59"/>
+      <c r="D118" s="59"/>
+      <c r="E118" s="64"/>
+      <c r="F118" s="64"/>
+      <c r="G118" s="64"/>
+      <c r="H118" s="64"/>
+      <c r="I118" s="64"/>
+      <c r="J118" s="64"/>
+    </row>
+    <row r="119" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A119" s="29" t="s">
         <v>150</v>
       </c>
@@ -2920,7 +2922,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A120" s="34" t="s">
         <v>118</v>
       </c>
@@ -2952,7 +2954,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A121" s="34" t="s">
         <v>121</v>
       </c>
@@ -2984,7 +2986,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A122" s="34" t="s">
         <v>124</v>
       </c>
@@ -3016,7 +3018,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A123" s="34" t="s">
         <v>128</v>
       </c>
@@ -3048,7 +3050,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A124" s="34" t="s">
         <v>132</v>
       </c>
@@ -3081,476 +3083,476 @@
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="53"/>
-      <c r="B125" s="53"/>
-      <c r="C125" s="53"/>
-      <c r="D125" s="53"/>
-      <c r="E125" s="53"/>
-      <c r="F125" s="53"/>
-      <c r="G125" s="53"/>
-      <c r="H125" s="53"/>
-      <c r="I125" s="53"/>
-      <c r="J125" s="53"/>
+      <c r="A125" s="57"/>
+      <c r="B125" s="57"/>
+      <c r="C125" s="57"/>
+      <c r="D125" s="57"/>
+      <c r="E125" s="57"/>
+      <c r="F125" s="57"/>
+      <c r="G125" s="57"/>
+      <c r="H125" s="57"/>
+      <c r="I125" s="57"/>
+      <c r="J125" s="57"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="51" t="s">
+      <c r="A126" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="B126" s="51"/>
-      <c r="C126" s="51"/>
-      <c r="D126" s="51"/>
-      <c r="E126" s="51"/>
-      <c r="F126" s="51"/>
-      <c r="G126" s="51"/>
-      <c r="H126" s="51"/>
-      <c r="I126" s="51"/>
-      <c r="J126" s="51"/>
+      <c r="B126" s="56"/>
+      <c r="C126" s="56"/>
+      <c r="D126" s="56"/>
+      <c r="E126" s="56"/>
+      <c r="F126" s="56"/>
+      <c r="G126" s="56"/>
+      <c r="H126" s="56"/>
+      <c r="I126" s="56"/>
+      <c r="J126" s="56"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="52" t="s">
+      <c r="A127" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="B127" s="55" t="s">
+      <c r="B127" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="C127" s="55"/>
-      <c r="D127" s="55"/>
-      <c r="E127" s="55"/>
-      <c r="F127" s="55"/>
-      <c r="G127" s="55"/>
-      <c r="H127" s="55"/>
-      <c r="I127" s="55"/>
-      <c r="J127" s="55"/>
+      <c r="C127" s="58"/>
+      <c r="D127" s="58"/>
+      <c r="E127" s="58"/>
+      <c r="F127" s="58"/>
+      <c r="G127" s="58"/>
+      <c r="H127" s="58"/>
+      <c r="I127" s="58"/>
+      <c r="J127" s="58"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="57" t="s">
+      <c r="A128" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="B128" s="54" t="s">
+      <c r="B128" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="C128" s="54" t="s">
+      <c r="C128" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="D128" s="54" t="s">
+      <c r="D128" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="E128" s="59" t="s">
+      <c r="E128" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="F128" s="54" t="s">
+      <c r="F128" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="G128" s="54"/>
-      <c r="H128" s="54"/>
-      <c r="I128" s="54"/>
+      <c r="G128" s="40"/>
+      <c r="H128" s="40"/>
+      <c r="I128" s="40"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="57" t="s">
+      <c r="A129" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="B129" s="49" t="s">
+      <c r="B129" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="C129" s="58" t="s">
+      <c r="C129" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="D129" s="60" t="s">
+      <c r="D129" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="E129" s="49" t="s">
+      <c r="E129" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="F129" s="49" t="s">
+      <c r="F129" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="G129" s="49"/>
-      <c r="H129" s="49"/>
-      <c r="I129" s="49"/>
+      <c r="G129" s="37"/>
+      <c r="H129" s="37"/>
+      <c r="I129" s="37"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="57" t="s">
+      <c r="A130" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="B130" s="49" t="s">
+      <c r="B130" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="C130" s="60" t="s">
+      <c r="C130" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="D130" s="49" t="s">
+      <c r="D130" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="E130" s="49" t="s">
+      <c r="E130" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="F130" s="58" t="s">
+      <c r="F130" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="G130" s="49"/>
-      <c r="H130" s="49"/>
-      <c r="I130" s="49"/>
+      <c r="G130" s="37"/>
+      <c r="H130" s="37"/>
+      <c r="I130" s="37"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="57" t="s">
+      <c r="A131" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="B131" s="49" t="s">
+      <c r="B131" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="C131" s="56" t="s">
+      <c r="C131" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="D131" s="49" t="s">
+      <c r="D131" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="E131" s="58" t="s">
+      <c r="E131" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="F131" s="61" t="s">
+      <c r="F131" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="G131" s="49"/>
-      <c r="H131" s="49"/>
-      <c r="I131" s="49"/>
+      <c r="G131" s="37"/>
+      <c r="H131" s="37"/>
+      <c r="I131" s="37"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="57" t="s">
+      <c r="A132" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="B132" s="58" t="s">
+      <c r="B132" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C132" s="49" t="s">
+      <c r="C132" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="D132" s="49" t="s">
+      <c r="D132" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="E132" s="56" t="s">
+      <c r="E132" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="F132" s="60" t="s">
+      <c r="F132" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="G132" s="49"/>
-      <c r="H132" s="49"/>
-      <c r="I132" s="49"/>
+      <c r="G132" s="37"/>
+      <c r="H132" s="37"/>
+      <c r="I132" s="37"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="57" t="s">
+      <c r="A133" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="B133" s="49" t="s">
+      <c r="B133" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="C133" s="60" t="s">
+      <c r="C133" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="D133" s="56" t="s">
+      <c r="D133" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="E133" s="62" t="s">
+      <c r="E133" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="F133" s="49" t="s">
+      <c r="F133" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="G133" s="49"/>
-      <c r="H133" s="49"/>
-      <c r="I133" s="49"/>
+      <c r="G133" s="37"/>
+      <c r="H133" s="37"/>
+      <c r="I133" s="37"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="57" t="s">
+      <c r="A134" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="B134" s="49" t="s">
+      <c r="B134" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="C134" s="61" t="s">
+      <c r="C134" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="D134" s="58" t="s">
+      <c r="D134" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="E134" s="60" t="s">
+      <c r="E134" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="F134" s="49" t="s">
+      <c r="F134" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="G134" s="49"/>
-      <c r="H134" s="49"/>
-      <c r="I134" s="49"/>
+      <c r="G134" s="37"/>
+      <c r="H134" s="37"/>
+      <c r="I134" s="37"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="57" t="s">
+      <c r="A135" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="B135" s="56" t="s">
+      <c r="B135" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="C135" s="62" t="s">
+      <c r="C135" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="D135" s="49" t="s">
+      <c r="D135" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="E135" s="49" t="s">
+      <c r="E135" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="F135" s="61" t="s">
+      <c r="F135" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="G135" s="49"/>
-      <c r="H135" s="49"/>
-      <c r="I135" s="49"/>
+      <c r="G135" s="37"/>
+      <c r="H135" s="37"/>
+      <c r="I135" s="37"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="57" t="s">
+      <c r="A136" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="B136" s="49" t="s">
+      <c r="B136" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="C136" s="60" t="s">
+      <c r="C136" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="D136" s="61" t="s">
+      <c r="D136" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="E136" s="49" t="s">
+      <c r="E136" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="F136" s="49" t="s">
+      <c r="F136" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="G136" s="49"/>
-      <c r="H136" s="49"/>
-      <c r="I136" s="49"/>
+      <c r="G136" s="37"/>
+      <c r="H136" s="37"/>
+      <c r="I136" s="37"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="57" t="s">
+      <c r="A137" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="B137" s="62" t="s">
+      <c r="B137" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="C137" s="49" t="s">
+      <c r="C137" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="D137" s="58" t="s">
+      <c r="D137" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="E137" s="56" t="s">
+      <c r="E137" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="F137" s="49" t="s">
+      <c r="F137" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="G137" s="49"/>
-      <c r="H137" s="49"/>
-      <c r="I137" s="49"/>
+      <c r="G137" s="37"/>
+      <c r="H137" s="37"/>
+      <c r="I137" s="37"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="64"/>
-      <c r="B138" s="64"/>
-      <c r="C138" s="64"/>
-      <c r="D138" s="64"/>
-      <c r="E138" s="64"/>
-      <c r="F138" s="64"/>
-      <c r="G138" s="50"/>
-      <c r="H138" s="50"/>
-      <c r="I138" s="50"/>
-      <c r="J138" s="50"/>
+      <c r="A138" s="48"/>
+      <c r="B138" s="48"/>
+      <c r="C138" s="48"/>
+      <c r="D138" s="48"/>
+      <c r="E138" s="48"/>
+      <c r="F138" s="48"/>
+      <c r="G138" s="38"/>
+      <c r="H138" s="38"/>
+      <c r="I138" s="38"/>
+      <c r="J138" s="38"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="63"/>
-      <c r="B139" s="63"/>
-      <c r="C139" s="63"/>
-      <c r="D139" s="63"/>
-      <c r="E139" s="63"/>
-      <c r="F139" s="63"/>
-      <c r="G139" s="50"/>
-      <c r="H139" s="50"/>
-      <c r="I139" s="50"/>
-      <c r="J139" s="50"/>
+      <c r="A139" s="49"/>
+      <c r="B139" s="49"/>
+      <c r="C139" s="49"/>
+      <c r="D139" s="49"/>
+      <c r="E139" s="49"/>
+      <c r="F139" s="49"/>
+      <c r="G139" s="38"/>
+      <c r="H139" s="38"/>
+      <c r="I139" s="38"/>
+      <c r="J139" s="38"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="63"/>
-      <c r="B140" s="63"/>
-      <c r="C140" s="63"/>
-      <c r="D140" s="63"/>
-      <c r="E140" s="63"/>
-      <c r="F140" s="63"/>
-      <c r="G140" s="50"/>
-      <c r="H140" s="50"/>
-      <c r="I140" s="50"/>
-      <c r="J140" s="50"/>
+      <c r="A140" s="49"/>
+      <c r="B140" s="49"/>
+      <c r="C140" s="49"/>
+      <c r="D140" s="49"/>
+      <c r="E140" s="49"/>
+      <c r="F140" s="49"/>
+      <c r="G140" s="38"/>
+      <c r="H140" s="38"/>
+      <c r="I140" s="38"/>
+      <c r="J140" s="38"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="63"/>
-      <c r="B141" s="63"/>
-      <c r="C141" s="63"/>
-      <c r="D141" s="63"/>
-      <c r="E141" s="63"/>
-      <c r="F141" s="63"/>
-      <c r="G141" s="50"/>
-      <c r="H141" s="50"/>
-      <c r="I141" s="50"/>
-      <c r="J141" s="50"/>
+      <c r="A141" s="49"/>
+      <c r="B141" s="49"/>
+      <c r="C141" s="49"/>
+      <c r="D141" s="49"/>
+      <c r="E141" s="49"/>
+      <c r="F141" s="49"/>
+      <c r="G141" s="38"/>
+      <c r="H141" s="38"/>
+      <c r="I141" s="38"/>
+      <c r="J141" s="38"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="63"/>
-      <c r="B142" s="63"/>
-      <c r="C142" s="63"/>
-      <c r="D142" s="63"/>
-      <c r="E142" s="63"/>
-      <c r="F142" s="63"/>
-      <c r="G142" s="50"/>
-      <c r="H142" s="50"/>
-      <c r="I142" s="50"/>
-      <c r="J142" s="50"/>
+      <c r="A142" s="49"/>
+      <c r="B142" s="49"/>
+      <c r="C142" s="49"/>
+      <c r="D142" s="49"/>
+      <c r="E142" s="49"/>
+      <c r="F142" s="49"/>
+      <c r="G142" s="38"/>
+      <c r="H142" s="38"/>
+      <c r="I142" s="38"/>
+      <c r="J142" s="38"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="63"/>
-      <c r="B143" s="63"/>
-      <c r="C143" s="63"/>
-      <c r="D143" s="63"/>
-      <c r="E143" s="63"/>
-      <c r="F143" s="63"/>
-      <c r="G143" s="50"/>
-      <c r="H143" s="50"/>
-      <c r="I143" s="50"/>
-      <c r="J143" s="50"/>
+      <c r="A143" s="49"/>
+      <c r="B143" s="49"/>
+      <c r="C143" s="49"/>
+      <c r="D143" s="49"/>
+      <c r="E143" s="49"/>
+      <c r="F143" s="49"/>
+      <c r="G143" s="38"/>
+      <c r="H143" s="38"/>
+      <c r="I143" s="38"/>
+      <c r="J143" s="38"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="63"/>
-      <c r="B144" s="63"/>
-      <c r="C144" s="63"/>
-      <c r="D144" s="63"/>
-      <c r="E144" s="63"/>
-      <c r="F144" s="63"/>
-      <c r="G144" s="50"/>
-      <c r="H144" s="50"/>
-      <c r="I144" s="50"/>
-      <c r="J144" s="50"/>
+      <c r="A144" s="49"/>
+      <c r="B144" s="49"/>
+      <c r="C144" s="49"/>
+      <c r="D144" s="49"/>
+      <c r="E144" s="49"/>
+      <c r="F144" s="49"/>
+      <c r="G144" s="38"/>
+      <c r="H144" s="38"/>
+      <c r="I144" s="38"/>
+      <c r="J144" s="38"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="63"/>
-      <c r="B145" s="63"/>
-      <c r="C145" s="63"/>
-      <c r="D145" s="63"/>
-      <c r="E145" s="63"/>
-      <c r="F145" s="63"/>
-      <c r="G145" s="50"/>
-      <c r="H145" s="50"/>
-      <c r="I145" s="50"/>
-      <c r="J145" s="50"/>
+      <c r="A145" s="49"/>
+      <c r="B145" s="49"/>
+      <c r="C145" s="49"/>
+      <c r="D145" s="49"/>
+      <c r="E145" s="49"/>
+      <c r="F145" s="49"/>
+      <c r="G145" s="38"/>
+      <c r="H145" s="38"/>
+      <c r="I145" s="38"/>
+      <c r="J145" s="38"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="63"/>
-      <c r="B146" s="63"/>
-      <c r="C146" s="63"/>
-      <c r="D146" s="63"/>
-      <c r="E146" s="63"/>
-      <c r="F146" s="63"/>
-      <c r="G146" s="50"/>
-      <c r="H146" s="50"/>
-      <c r="I146" s="50"/>
-      <c r="J146" s="50"/>
+      <c r="A146" s="49"/>
+      <c r="B146" s="49"/>
+      <c r="C146" s="49"/>
+      <c r="D146" s="49"/>
+      <c r="E146" s="49"/>
+      <c r="F146" s="49"/>
+      <c r="G146" s="38"/>
+      <c r="H146" s="38"/>
+      <c r="I146" s="38"/>
+      <c r="J146" s="38"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="63"/>
-      <c r="B147" s="63"/>
-      <c r="C147" s="63"/>
-      <c r="D147" s="63"/>
-      <c r="E147" s="63"/>
-      <c r="F147" s="63"/>
-      <c r="G147" s="50"/>
-      <c r="H147" s="50"/>
-      <c r="I147" s="50"/>
-      <c r="J147" s="50"/>
+      <c r="A147" s="49"/>
+      <c r="B147" s="49"/>
+      <c r="C147" s="49"/>
+      <c r="D147" s="49"/>
+      <c r="E147" s="49"/>
+      <c r="F147" s="49"/>
+      <c r="G147" s="38"/>
+      <c r="H147" s="38"/>
+      <c r="I147" s="38"/>
+      <c r="J147" s="38"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="63"/>
-      <c r="B148" s="63"/>
-      <c r="C148" s="63"/>
-      <c r="D148" s="63"/>
-      <c r="E148" s="63"/>
-      <c r="F148" s="63"/>
-      <c r="G148" s="50"/>
-      <c r="H148" s="50"/>
-      <c r="I148" s="50"/>
-      <c r="J148" s="50"/>
+      <c r="A148" s="49"/>
+      <c r="B148" s="49"/>
+      <c r="C148" s="49"/>
+      <c r="D148" s="49"/>
+      <c r="E148" s="49"/>
+      <c r="F148" s="49"/>
+      <c r="G148" s="38"/>
+      <c r="H148" s="38"/>
+      <c r="I148" s="38"/>
+      <c r="J148" s="38"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="63"/>
-      <c r="B149" s="63"/>
-      <c r="C149" s="63"/>
-      <c r="D149" s="63"/>
-      <c r="E149" s="63"/>
-      <c r="F149" s="63"/>
-      <c r="G149" s="50"/>
-      <c r="H149" s="50"/>
-      <c r="I149" s="50"/>
-      <c r="J149" s="50"/>
+      <c r="A149" s="49"/>
+      <c r="B149" s="49"/>
+      <c r="C149" s="49"/>
+      <c r="D149" s="49"/>
+      <c r="E149" s="49"/>
+      <c r="F149" s="49"/>
+      <c r="G149" s="38"/>
+      <c r="H149" s="38"/>
+      <c r="I149" s="38"/>
+      <c r="J149" s="38"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="63"/>
-      <c r="B150" s="63"/>
-      <c r="C150" s="63"/>
-      <c r="D150" s="63"/>
-      <c r="E150" s="63"/>
-      <c r="F150" s="63"/>
+      <c r="A150" s="49"/>
+      <c r="B150" s="49"/>
+      <c r="C150" s="49"/>
+      <c r="D150" s="49"/>
+      <c r="E150" s="49"/>
+      <c r="F150" s="49"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="63"/>
-      <c r="B151" s="63"/>
-      <c r="C151" s="63"/>
-      <c r="D151" s="63"/>
-      <c r="E151" s="63"/>
-      <c r="F151" s="63"/>
+      <c r="A151" s="49"/>
+      <c r="B151" s="49"/>
+      <c r="C151" s="49"/>
+      <c r="D151" s="49"/>
+      <c r="E151" s="49"/>
+      <c r="F151" s="49"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="63"/>
-      <c r="B152" s="63"/>
-      <c r="C152" s="63"/>
-      <c r="D152" s="63"/>
-      <c r="E152" s="63"/>
-      <c r="F152" s="63"/>
+      <c r="A152" s="49"/>
+      <c r="B152" s="49"/>
+      <c r="C152" s="49"/>
+      <c r="D152" s="49"/>
+      <c r="E152" s="49"/>
+      <c r="F152" s="49"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="63"/>
-      <c r="B153" s="63"/>
-      <c r="C153" s="63"/>
-      <c r="D153" s="63"/>
-      <c r="E153" s="63"/>
-      <c r="F153" s="63"/>
+      <c r="A153" s="49"/>
+      <c r="B153" s="49"/>
+      <c r="C153" s="49"/>
+      <c r="D153" s="49"/>
+      <c r="E153" s="49"/>
+      <c r="F153" s="49"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="63"/>
-      <c r="B154" s="63"/>
-      <c r="C154" s="63"/>
-      <c r="D154" s="63"/>
-      <c r="E154" s="63"/>
-      <c r="F154" s="63"/>
+      <c r="A154" s="49"/>
+      <c r="B154" s="49"/>
+      <c r="C154" s="49"/>
+      <c r="D154" s="49"/>
+      <c r="E154" s="49"/>
+      <c r="F154" s="49"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="63"/>
-      <c r="B155" s="63"/>
-      <c r="C155" s="63"/>
-      <c r="D155" s="63"/>
-      <c r="E155" s="63"/>
-      <c r="F155" s="63"/>
+      <c r="A155" s="49"/>
+      <c r="B155" s="49"/>
+      <c r="C155" s="49"/>
+      <c r="D155" s="49"/>
+      <c r="E155" s="49"/>
+      <c r="F155" s="49"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="63"/>
-      <c r="B156" s="63"/>
-      <c r="C156" s="63"/>
-      <c r="D156" s="63"/>
-      <c r="E156" s="63"/>
-      <c r="F156" s="63"/>
+      <c r="A156" s="49"/>
+      <c r="B156" s="49"/>
+      <c r="C156" s="49"/>
+      <c r="D156" s="49"/>
+      <c r="E156" s="49"/>
+      <c r="F156" s="49"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
@@ -4796,6 +4798,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="E103:J110"/>
+    <mergeCell ref="A110:D117"/>
+    <mergeCell ref="E117:J117"/>
+    <mergeCell ref="A118:J118"/>
     <mergeCell ref="A138:F156"/>
     <mergeCell ref="H111:J111"/>
     <mergeCell ref="H112:J112"/>
@@ -4806,11 +4813,6 @@
     <mergeCell ref="A126:J126"/>
     <mergeCell ref="A125:J125"/>
     <mergeCell ref="B127:J127"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="E103:J110"/>
-    <mergeCell ref="A110:D117"/>
-    <mergeCell ref="E117:J117"/>
-    <mergeCell ref="A118:J118"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C105" r:id="rId1" display="https://www.onliner.by/" xr:uid="{89576E65-3149-4D5F-A205-F06E7D3DE869}"/>
@@ -4825,9 +4827,11 @@
     <hyperlink ref="B137" r:id="rId10" xr:uid="{75F77766-BF5E-4F11-9846-26DE65F327BB}"/>
     <hyperlink ref="C135" r:id="rId11" xr:uid="{CE263234-23F2-4AC9-AD90-4FD0E2E98337}"/>
     <hyperlink ref="E133" r:id="rId12" xr:uid="{3B52AFCC-E24D-4D7C-B2DC-C66CCF299B3E}"/>
+    <hyperlink ref="C130" r:id="rId13" xr:uid="{24D7F56F-3C3F-4233-91E0-35BD092E081D}"/>
+    <hyperlink ref="C131" r:id="rId14" xr:uid="{8682BD80-DAC4-4564-AB45-7002BA1D2697}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
   <ignoredErrors>
     <ignoredError sqref="A2:C100 C101:C102 C157:C570" numberStoredAsText="1"/>
   </ignoredErrors>
